--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9969572126203283</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.013900055707453</v>
+      </c>
+      <c r="D16">
+        <v>0.966172179807626</v>
+      </c>
+      <c r="E16">
+        <v>1.001089611008914</v>
+      </c>
+      <c r="F16">
+        <v>0.9923383171122281</v>
+      </c>
+      <c r="G16">
+        <v>1.013900055707453</v>
+      </c>
+      <c r="H16">
+        <v>0.966172179807626</v>
+      </c>
+      <c r="I16">
+        <v>1.005272623953762</v>
+      </c>
+      <c r="J16">
+        <v>0.9889396371195713</v>
+      </c>
+      <c r="K16">
+        <v>1.002280705661392</v>
+      </c>
+      <c r="L16">
+        <v>0.9785689931768242</v>
+      </c>
+      <c r="M16">
+        <v>1.013900055707453</v>
+      </c>
+      <c r="N16">
+        <v>0.98363089540827</v>
+      </c>
+      <c r="O16">
+        <v>0.9933750409090552</v>
+      </c>
+      <c r="P16">
+        <v>0.9935702654434713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.013900055707453</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.077723999999999</v>
+        <v>1.013900055707453</v>
       </c>
       <c r="D10">
-        <v>0.8893799999999999</v>
+        <v>0.966172179807626</v>
       </c>
       <c r="E10">
-        <v>1.024576000000002</v>
+        <v>1.001089611008914</v>
       </c>
       <c r="F10">
-        <v>0.9708320000000004</v>
+        <v>0.9923383171122281</v>
       </c>
       <c r="G10">
-        <v>1.077723999999999</v>
+        <v>1.013900055707453</v>
       </c>
       <c r="H10">
-        <v>0.8893799999999999</v>
+        <v>0.966172179807626</v>
       </c>
       <c r="I10">
-        <v>1.032912</v>
+        <v>1.005272623953762</v>
       </c>
       <c r="J10">
-        <v>0.9729119999999997</v>
+        <v>0.9889396371195713</v>
       </c>
       <c r="K10">
-        <v>1.02</v>
+        <v>1.002280705661392</v>
       </c>
       <c r="L10">
-        <v>0.93</v>
+        <v>0.9785689931768242</v>
       </c>
       <c r="M10">
-        <v>1.077723999999999</v>
+        <v>1.013900055707453</v>
       </c>
       <c r="N10">
-        <v>0.9569780000000008</v>
+        <v>0.98363089540827</v>
       </c>
       <c r="O10">
-        <v>0.9906280000000005</v>
+        <v>0.9933750409090552</v>
       </c>
       <c r="P10">
-        <v>0.9897920000000001</v>
+        <v>0.9935702654434713</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.09</v>
+        <v>1.063951796849523</v>
       </c>
       <c r="D11">
-        <v>0.8943125</v>
+        <v>0.8876575370010542</v>
       </c>
       <c r="E11">
+        <v>1.027876986452726</v>
+      </c>
+      <c r="F11">
+        <v>0.9714994836172389</v>
+      </c>
+      <c r="G11">
+        <v>1.063951796849523</v>
+      </c>
+      <c r="H11">
+        <v>0.8876575370010542</v>
+      </c>
+      <c r="I11">
+        <v>1.036140927605159</v>
+      </c>
+      <c r="J11">
+        <v>0.974632232627624</v>
+      </c>
+      <c r="K11">
         <v>1.02</v>
-      </c>
-      <c r="F11">
-        <v>0.97</v>
-      </c>
-      <c r="G11">
-        <v>1.09</v>
-      </c>
-      <c r="H11">
-        <v>0.8943125</v>
-      </c>
-      <c r="I11">
-        <v>1.03</v>
-      </c>
-      <c r="J11">
-        <v>0.9691749999999989</v>
-      </c>
-      <c r="K11">
-        <v>1.018887499999998</v>
       </c>
       <c r="L11">
         <v>0.93</v>
       </c>
       <c r="M11">
-        <v>1.09</v>
+        <v>1.063951796849523</v>
       </c>
       <c r="N11">
-        <v>0.9571562499999999</v>
+        <v>0.9577672617268902</v>
       </c>
       <c r="O11">
-        <v>0.993578125</v>
+        <v>0.9877464509801355</v>
       </c>
       <c r="P11">
-        <v>0.9902968749999996</v>
+        <v>0.9889698705191656</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.049025518591993</v>
+        <v>1.063958518950846</v>
       </c>
       <c r="D12">
-        <v>0.9369967702016022</v>
+        <v>0.8876903629624887</v>
       </c>
       <c r="E12">
-        <v>1.010238069964799</v>
+        <v>1.027876299235434</v>
       </c>
       <c r="F12">
-        <v>0.9809546158080009</v>
+        <v>0.9714815803602485</v>
       </c>
       <c r="G12">
-        <v>1.049025518591993</v>
+        <v>1.063958518950846</v>
       </c>
       <c r="H12">
-        <v>0.9369967702016022</v>
+        <v>0.8876903629624887</v>
       </c>
       <c r="I12">
-        <v>1.015746453299195</v>
+        <v>1.036135016889764</v>
       </c>
       <c r="J12">
-        <v>0.9808642073600049</v>
+        <v>0.9746476094286329</v>
       </c>
       <c r="K12">
-        <v>1.009644355481595</v>
+        <v>1.02</v>
       </c>
       <c r="L12">
-        <v>0.9579551954944003</v>
+        <v>0.93</v>
       </c>
       <c r="M12">
-        <v>1.049025518591993</v>
+        <v>1.063958518950846</v>
       </c>
       <c r="N12">
-        <v>0.9736174200832004</v>
+        <v>0.9577833310989614</v>
       </c>
       <c r="O12">
-        <v>0.9943037436415987</v>
+        <v>0.9877516903772543</v>
       </c>
       <c r="P12">
-        <v>0.9926781482751987</v>
+        <v>0.9889736734784267</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9959893203102888</v>
+        <v>1.063921991618633</v>
       </c>
       <c r="D13">
-        <v>0.9960232981127799</v>
+        <v>0.8876765645429671</v>
       </c>
       <c r="E13">
-        <v>0.9961152031849769</v>
+        <v>1.027883038813431</v>
       </c>
       <c r="F13">
-        <v>0.9958622372371321</v>
+        <v>0.9715006841308189</v>
       </c>
       <c r="G13">
-        <v>0.9959893203102888</v>
+        <v>1.063921991618633</v>
       </c>
       <c r="H13">
-        <v>0.9960232981127799</v>
+        <v>0.8876765645429671</v>
       </c>
       <c r="I13">
-        <v>0.9959035428369406</v>
+        <v>1.036143487531012</v>
       </c>
       <c r="J13">
-        <v>0.9961190647439339</v>
+        <v>0.9746383766646206</v>
       </c>
       <c r="K13">
-        <v>0.9965041205508318</v>
+        <v>1.02</v>
       </c>
       <c r="L13">
-        <v>0.9959122778873029</v>
+        <v>0.93</v>
       </c>
       <c r="M13">
-        <v>0.9959893203102888</v>
+        <v>1.063921991618633</v>
       </c>
       <c r="N13">
-        <v>0.9960692506488784</v>
+        <v>0.9577798016781991</v>
       </c>
       <c r="O13">
-        <v>0.9959975147112944</v>
+        <v>0.9877455697764624</v>
       </c>
       <c r="P13">
-        <v>0.9960536331080234</v>
+        <v>0.9889705179126853</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9955447106344336</v>
+        <v>1.077723999999999</v>
       </c>
       <c r="D14">
-        <v>0.9963770346229226</v>
+        <v>0.8893799999999999</v>
       </c>
       <c r="E14">
-        <v>0.9952506645184048</v>
+        <v>1.024576000000002</v>
       </c>
       <c r="F14">
-        <v>0.9959054672325155</v>
+        <v>0.9708320000000004</v>
       </c>
       <c r="G14">
-        <v>0.9955447106344336</v>
+        <v>1.077723999999999</v>
       </c>
       <c r="H14">
-        <v>0.9963770346229226</v>
+        <v>0.8893799999999999</v>
       </c>
       <c r="I14">
-        <v>0.9949280483052149</v>
+        <v>1.032912</v>
       </c>
       <c r="J14">
-        <v>0.9972030977905006</v>
+        <v>0.9729119999999997</v>
       </c>
       <c r="K14">
-        <v>0.9952478369001835</v>
+        <v>1.02</v>
       </c>
       <c r="L14">
-        <v>0.9989733663909722</v>
+        <v>0.93</v>
       </c>
       <c r="M14">
-        <v>0.9955447106344336</v>
+        <v>1.077723999999999</v>
       </c>
       <c r="N14">
-        <v>0.9958138495706637</v>
+        <v>0.9569780000000008</v>
       </c>
       <c r="O14">
-        <v>0.9957694692520691</v>
+        <v>0.9906280000000005</v>
       </c>
       <c r="P14">
-        <v>0.9961787782993935</v>
+        <v>0.9897920000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9879164157093315</v>
+        <v>1.09</v>
       </c>
       <c r="D15">
-        <v>1.007756344560311</v>
+        <v>0.8943125</v>
       </c>
       <c r="E15">
-        <v>0.9938769154117232</v>
+        <v>1.02</v>
       </c>
       <c r="F15">
-        <v>0.9983587992948711</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.9879164157093315</v>
+        <v>1.09</v>
       </c>
       <c r="H15">
-        <v>1.007756344560311</v>
+        <v>0.8943125</v>
       </c>
       <c r="I15">
-        <v>0.9918861618717072</v>
+        <v>1.03</v>
       </c>
       <c r="J15">
-        <v>0.9987427621236625</v>
+        <v>0.9691749999999989</v>
       </c>
       <c r="K15">
-        <v>0.9934149041475179</v>
+        <v>1.018887499999998</v>
       </c>
       <c r="L15">
-        <v>1.003705397843503</v>
+        <v>0.93</v>
       </c>
       <c r="M15">
-        <v>0.9879164157093315</v>
+        <v>1.09</v>
       </c>
       <c r="N15">
-        <v>1.000816629986017</v>
+        <v>0.9571562499999999</v>
       </c>
       <c r="O15">
-        <v>0.9969771187440591</v>
+        <v>0.993578125</v>
       </c>
       <c r="P15">
-        <v>0.9969572126203283</v>
+        <v>0.9902968749999996</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.013900055707453</v>
+        <v>1.049025518591993</v>
       </c>
       <c r="D16">
-        <v>0.966172179807626</v>
+        <v>0.9369967702016022</v>
       </c>
       <c r="E16">
-        <v>1.001089611008914</v>
+        <v>1.010238069964799</v>
       </c>
       <c r="F16">
-        <v>0.9923383171122281</v>
+        <v>0.9809546158080009</v>
       </c>
       <c r="G16">
-        <v>1.013900055707453</v>
+        <v>1.049025518591993</v>
       </c>
       <c r="H16">
-        <v>0.966172179807626</v>
+        <v>0.9369967702016022</v>
       </c>
       <c r="I16">
-        <v>1.005272623953762</v>
+        <v>1.015746453299195</v>
       </c>
       <c r="J16">
-        <v>0.9889396371195713</v>
+        <v>0.9808642073600049</v>
       </c>
       <c r="K16">
-        <v>1.002280705661392</v>
+        <v>1.009644355481595</v>
       </c>
       <c r="L16">
-        <v>0.9785689931768242</v>
+        <v>0.9579551954944003</v>
       </c>
       <c r="M16">
-        <v>1.013900055707453</v>
+        <v>1.049025518591993</v>
       </c>
       <c r="N16">
-        <v>0.98363089540827</v>
+        <v>0.9736174200832004</v>
       </c>
       <c r="O16">
-        <v>0.9933750409090552</v>
+        <v>0.9943037436415987</v>
       </c>
       <c r="P16">
-        <v>0.9935702654434713</v>
+        <v>0.9926781482751987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9959893203102888</v>
+      </c>
+      <c r="D17">
+        <v>0.9960232981127799</v>
+      </c>
+      <c r="E17">
+        <v>0.9961152031849769</v>
+      </c>
+      <c r="F17">
+        <v>0.9958622372371321</v>
+      </c>
+      <c r="G17">
+        <v>0.9959893203102888</v>
+      </c>
+      <c r="H17">
+        <v>0.9960232981127799</v>
+      </c>
+      <c r="I17">
+        <v>0.9959035428369406</v>
+      </c>
+      <c r="J17">
+        <v>0.9961190647439339</v>
+      </c>
+      <c r="K17">
+        <v>0.9965041205508318</v>
+      </c>
+      <c r="L17">
+        <v>0.9959122778873029</v>
+      </c>
+      <c r="M17">
+        <v>0.9959893203102888</v>
+      </c>
+      <c r="N17">
+        <v>0.9960692506488784</v>
+      </c>
+      <c r="O17">
+        <v>0.9959975147112944</v>
+      </c>
+      <c r="P17">
+        <v>0.9960536331080234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9955447106344336</v>
+      </c>
+      <c r="D18">
+        <v>0.9963770346229226</v>
+      </c>
+      <c r="E18">
+        <v>0.9952506645184048</v>
+      </c>
+      <c r="F18">
+        <v>0.9959054672325155</v>
+      </c>
+      <c r="G18">
+        <v>0.9955447106344336</v>
+      </c>
+      <c r="H18">
+        <v>0.9963770346229226</v>
+      </c>
+      <c r="I18">
+        <v>0.9949280483052149</v>
+      </c>
+      <c r="J18">
+        <v>0.9972030977905006</v>
+      </c>
+      <c r="K18">
+        <v>0.9952478369001835</v>
+      </c>
+      <c r="L18">
+        <v>0.9989733663909722</v>
+      </c>
+      <c r="M18">
+        <v>0.9955447106344336</v>
+      </c>
+      <c r="N18">
+        <v>0.9958138495706637</v>
+      </c>
+      <c r="O18">
+        <v>0.9957694692520691</v>
+      </c>
+      <c r="P18">
+        <v>0.9961787782993935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9879164157093315</v>
+      </c>
+      <c r="D19">
+        <v>1.007756344560311</v>
+      </c>
+      <c r="E19">
+        <v>0.9938769154117232</v>
+      </c>
+      <c r="F19">
+        <v>0.9983587992948711</v>
+      </c>
+      <c r="G19">
+        <v>0.9879164157093315</v>
+      </c>
+      <c r="H19">
+        <v>1.007756344560311</v>
+      </c>
+      <c r="I19">
+        <v>0.9918861618717072</v>
+      </c>
+      <c r="J19">
+        <v>0.9987427621236625</v>
+      </c>
+      <c r="K19">
+        <v>0.9934149041475179</v>
+      </c>
+      <c r="L19">
+        <v>1.003705397843503</v>
+      </c>
+      <c r="M19">
+        <v>0.9879164157093315</v>
+      </c>
+      <c r="N19">
+        <v>1.000816629986017</v>
+      </c>
+      <c r="O19">
+        <v>0.9969771187440591</v>
+      </c>
+      <c r="P19">
+        <v>0.9969572126203283</v>
       </c>
     </row>
   </sheetData>
